--- a/Макеты/02/ВА_КонтекстныйПересчетПодготовленный_En.xlsx
+++ b/Макеты/02/ВА_КонтекстныйПересчетПодготовленный_En.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-Perform-En-En-Budget\Макеты\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8F85FC-4455-44FA-B486-30E9FD58D82A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A6323-A150-4634-96BA-9A56B53B47DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>VA - Contextual recalculation (pivot table)</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>February 2024</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>01/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
   </si>
 </sst>
 </file>
@@ -243,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -302,13 +314,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -656,7 +665,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -731,8 +740,8 @@
       <c r="D4" s="4">
         <v>1500</v>
       </c>
-      <c r="E4" s="20">
-        <v>45292</v>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="13"/>
@@ -754,8 +763,8 @@
       <c r="D5" s="6">
         <v>300</v>
       </c>
-      <c r="E5" s="21">
-        <v>45292</v>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="15"/>
@@ -777,8 +786,8 @@
       <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="20">
-        <v>45292</v>
+      <c r="E6" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>10</v>
@@ -804,8 +813,8 @@
       <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" s="22">
-        <v>45323</v>
+      <c r="E7" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>11</v>
@@ -819,8 +828,8 @@
       <c r="I7" s="13">
         <v>666</v>
       </c>
-      <c r="J7" s="22">
-        <v>45324</v>
+      <c r="J7" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
@@ -839,8 +848,8 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="22">
-        <v>45352</v>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>13</v>
